--- a/src/test/resources/DevEx.xlsx
+++ b/src/test/resources/DevEx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD273D-0637-4A9C-8840-A9F12175A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1B006E-271B-4FE6-A834-B6292CD856CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Username</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>batch16</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -671,7 +674,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
